--- a/programing-bible/test.xlsx
+++ b/programing-bible/test.xlsx
@@ -448,7 +448,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Elliot</t>
+          <t>Pig</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
